--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\DS\CETM46\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\DS\CETM46\project\CETM46_DS_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD81EA66-C33C-43A2-A39A-5AA6FF9F6DD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E635897-AE37-4AFB-B6DE-4FC6F931FFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -138,12 +140,6 @@
     <t>Risk Management</t>
   </si>
   <si>
-    <t>Status and Tracking</t>
-  </si>
-  <si>
-    <t>Project Updates</t>
-  </si>
-  <si>
     <t>Effort and Cost Tracking</t>
   </si>
   <si>
@@ -162,9 +158,6 @@
     <t>User Acceptance Test</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
     <t>ChatBot for web</t>
   </si>
   <si>
@@ -234,13 +227,13 @@
     <t>User Testing</t>
   </si>
   <si>
-    <t>Review meeting with each PIC</t>
-  </si>
-  <si>
     <t>Correction / Enhancement</t>
   </si>
   <si>
-    <t>Project Review</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Project Review meeting</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1146,65 @@
     <xf numFmtId="0" fontId="21" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,65 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,13 +2391,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ45"/>
+  <dimension ref="A1:BQ40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2554,38 +2547,38 @@
     </row>
     <row r="2" spans="1:69" ht="42" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
@@ -2698,41 +2691,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="111" t="s">
+      <c r="I4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
@@ -2777,18 +2770,18 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="91"/>
-      <c r="D5" s="90" t="s">
-        <v>46</v>
+      <c r="D5" s="115" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="90" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="91"/>
@@ -2797,7 +2790,7 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="109">
+      <c r="P5" s="92">
         <v>44136</v>
       </c>
       <c r="Q5" s="91"/>
@@ -2998,201 +2991,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="104" t="s">
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="103" t="s">
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="100" t="s">
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="102"/>
+      <c r="AS8" s="102"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="102"/>
+      <c r="AV8" s="102"/>
+      <c r="AW8" s="102"/>
+      <c r="AX8" s="102"/>
+      <c r="AY8" s="102"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97"/>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
-      <c r="BP8" s="101"/>
+      <c r="BC8" s="102"/>
+      <c r="BD8" s="102"/>
+      <c r="BE8" s="102"/>
+      <c r="BF8" s="102"/>
+      <c r="BG8" s="102"/>
+      <c r="BH8" s="102"/>
+      <c r="BI8" s="102"/>
+      <c r="BJ8" s="102"/>
+      <c r="BK8" s="102"/>
+      <c r="BL8" s="102"/>
+      <c r="BM8" s="102"/>
+      <c r="BN8" s="102"/>
+      <c r="BO8" s="102"/>
+      <c r="BP8" s="103"/>
       <c r="BQ8" s="33"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="93" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="93" t="s">
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="93" t="s">
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="105" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="105" t="s">
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="105" t="s">
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="95"/>
-      <c r="AM9" s="102" t="s">
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="95"/>
-      <c r="AR9" s="102" t="s">
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="102" t="s">
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="94"/>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="95"/>
-      <c r="BB9" s="99" t="s">
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="BC9" s="94"/>
-      <c r="BD9" s="94"/>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="95"/>
-      <c r="BG9" s="99" t="s">
+      <c r="BC9" s="99"/>
+      <c r="BD9" s="99"/>
+      <c r="BE9" s="99"/>
+      <c r="BF9" s="100"/>
+      <c r="BG9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="94"/>
-      <c r="BI9" s="94"/>
-      <c r="BJ9" s="94"/>
-      <c r="BK9" s="95"/>
-      <c r="BL9" s="99" t="s">
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="99"/>
+      <c r="BJ9" s="99"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="94"/>
-      <c r="BN9" s="94"/>
-      <c r="BO9" s="94"/>
-      <c r="BP9" s="95"/>
+      <c r="BM9" s="99"/>
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="100"/>
       <c r="BQ9" s="35"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="36"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="37" t="s">
         <v>27</v>
       </c>
@@ -3381,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -3456,15 +3449,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="51">
-        <f>P5</f>
         <v>44136</v>
       </c>
       <c r="F12" s="51">
-        <f>E12+G12</f>
         <v>44141</v>
       </c>
       <c r="G12" s="52">
@@ -3541,15 +3532,13 @@
         <v>32</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="66">
-        <f>E12</f>
         <v>44136</v>
       </c>
       <c r="F13" s="66">
-        <f>E13+G13</f>
         <v>44138</v>
       </c>
       <c r="G13" s="67">
@@ -3623,18 +3612,16 @@
     <row r="14" spans="1:69" ht="17.25" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="78" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="66">
-        <f>F13-1</f>
         <v>44137</v>
       </c>
       <c r="F14" s="66">
-        <f t="shared" ref="F14:F16" si="0">E14+G14</f>
         <v>44139</v>
       </c>
       <c r="G14" s="67">
@@ -3708,18 +3695,16 @@
     <row r="15" spans="1:69" ht="17.25" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="66">
-        <f t="shared" ref="E15:E16" si="1">F14-1</f>
         <v>44138</v>
       </c>
       <c r="F15" s="66">
-        <f t="shared" si="0"/>
         <v>44140</v>
       </c>
       <c r="G15" s="67">
@@ -3793,18 +3778,16 @@
     <row r="16" spans="1:69" ht="17.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="66">
-        <f t="shared" si="1"/>
         <v>44139</v>
       </c>
       <c r="F16" s="66">
-        <f t="shared" si="0"/>
         <v>44141</v>
       </c>
       <c r="G16" s="67">
@@ -3881,15 +3864,13 @@
         <v>1.2</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="66">
-        <f>F16+1</f>
         <v>44142</v>
       </c>
       <c r="F17" s="66">
-        <f>E17</f>
         <v>44142</v>
       </c>
       <c r="G17" s="67">
@@ -3966,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -4045,11 +4026,9 @@
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="51">
-        <f>E17</f>
         <v>44142</v>
       </c>
       <c r="F19" s="66">
-        <f>E19</f>
         <v>44142</v>
       </c>
       <c r="G19" s="67">
@@ -4126,15 +4105,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="51">
-        <f>E19</f>
         <v>44142</v>
       </c>
       <c r="F20" s="66">
-        <f>E20</f>
         <v>44142</v>
       </c>
       <c r="G20" s="67">
@@ -4215,11 +4192,9 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="66">
-        <f>F20+G21</f>
         <v>44143</v>
       </c>
       <c r="F21" s="66">
-        <f>E21</f>
         <v>44143</v>
       </c>
       <c r="G21" s="67">
@@ -4300,11 +4275,9 @@
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="66">
-        <f t="shared" ref="E22:E23" si="2">F21+G22</f>
         <v>44144</v>
       </c>
       <c r="F22" s="66">
-        <f t="shared" ref="F22:F23" si="3">E22</f>
         <v>44144</v>
       </c>
       <c r="G22" s="67">
@@ -4381,15 +4354,13 @@
         <v>2.5</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" s="66">
-        <f t="shared" si="2"/>
         <v>44145</v>
       </c>
       <c r="F23" s="66">
-        <f t="shared" si="3"/>
         <v>44145</v>
       </c>
       <c r="G23" s="67">
@@ -4466,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
@@ -4541,15 +4512,13 @@
         <v>3.1</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51">
-        <f>F23+G23</f>
         <v>44146</v>
       </c>
       <c r="F25" s="51">
-        <f>E25</f>
         <v>44146</v>
       </c>
       <c r="G25" s="67">
@@ -4626,15 +4595,13 @@
         <v>3.2</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="51">
-        <f>F25+G25</f>
         <v>44147</v>
       </c>
       <c r="F26" s="51">
-        <f>E26</f>
         <v>44147</v>
       </c>
       <c r="G26" s="67">
@@ -4711,15 +4678,13 @@
         <v>3.3</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="66">
-        <f>F26+G26</f>
         <v>44148</v>
       </c>
       <c r="F27" s="66">
-        <f>E27+G27-1</f>
         <v>44149</v>
       </c>
       <c r="G27" s="67">
@@ -4796,15 +4761,13 @@
         <v>3.4</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="66">
-        <f>F27+G27</f>
         <v>44151</v>
       </c>
       <c r="F28" s="66">
-        <f>E28+G28-1</f>
         <v>44152</v>
       </c>
       <c r="G28" s="67">
@@ -4875,354 +4838,347 @@
       <c r="BP28" s="77"/>
       <c r="BQ28" s="63"/>
     </row>
-    <row r="29" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49">
-        <v>3.5</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66">
-        <f>E28+G28</f>
-        <v>44153</v>
-      </c>
-      <c r="F29" s="66">
-        <f>E29+G29-1</f>
-        <v>44153</v>
-      </c>
-      <c r="G29" s="67">
-        <v>1</v>
-      </c>
-      <c r="H29" s="68">
-        <v>0</v>
-      </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="71"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="75"/>
-      <c r="AS29" s="75"/>
-      <c r="AT29" s="75"/>
-      <c r="AU29" s="75"/>
-      <c r="AV29" s="75"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="76"/>
-      <c r="BH29" s="76"/>
-      <c r="BI29" s="76"/>
-      <c r="BJ29" s="76"/>
-      <c r="BK29" s="76"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="71"/>
-      <c r="BN29" s="71"/>
-      <c r="BO29" s="71"/>
-      <c r="BP29" s="77"/>
-      <c r="BQ29" s="63"/>
+    <row r="29" spans="1:69" ht="21" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="79">
+        <v>4</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="82"/>
+      <c r="BD29" s="82"/>
+      <c r="BE29" s="82"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="82"/>
+      <c r="BH29" s="82"/>
+      <c r="BI29" s="82"/>
+      <c r="BJ29" s="82"/>
+      <c r="BK29" s="82"/>
+      <c r="BL29" s="82"/>
+      <c r="BM29" s="82"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="82"/>
+      <c r="BP29" s="82"/>
+      <c r="BQ29" s="32"/>
     </row>
     <row r="30" spans="1:69" ht="17.25" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66">
-        <f>E29+G29</f>
-        <v>44154</v>
-      </c>
-      <c r="F30" s="66">
-        <f>E30+G30-1</f>
-        <v>44154</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51">
+        <v>44155</v>
+      </c>
+      <c r="F30" s="51">
+        <v>44172</v>
       </c>
       <c r="G30" s="67">
-        <v>1</v>
-      </c>
-      <c r="H30" s="68">
+        <v>18</v>
+      </c>
+      <c r="H30" s="53">
         <v>0</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="71"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="71"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="75"/>
-      <c r="AU30" s="75"/>
-      <c r="AV30" s="75"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="71"/>
-      <c r="AZ30" s="71"/>
-      <c r="BA30" s="71"/>
-      <c r="BB30" s="71"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="71"/>
-      <c r="BE30" s="71"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="76"/>
-      <c r="BH30" s="76"/>
-      <c r="BI30" s="76"/>
-      <c r="BJ30" s="76"/>
-      <c r="BK30" s="76"/>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="77"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="60"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="60"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="60"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="61"/>
+      <c r="BH30" s="61"/>
+      <c r="BI30" s="61"/>
+      <c r="BJ30" s="61"/>
+      <c r="BK30" s="61"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
+      <c r="BP30" s="62"/>
       <c r="BQ30" s="63"/>
     </row>
-    <row r="31" spans="1:69" ht="21" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="79">
-        <v>4</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="82"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="82"/>
-      <c r="BC31" s="82"/>
-      <c r="BD31" s="82"/>
-      <c r="BE31" s="82"/>
-      <c r="BF31" s="82"/>
-      <c r="BG31" s="82"/>
-      <c r="BH31" s="82"/>
-      <c r="BI31" s="82"/>
-      <c r="BJ31" s="82"/>
-      <c r="BK31" s="82"/>
-      <c r="BL31" s="82"/>
-      <c r="BM31" s="82"/>
-      <c r="BN31" s="82"/>
-      <c r="BO31" s="82"/>
-      <c r="BP31" s="82"/>
-      <c r="BQ31" s="32"/>
+    <row r="31" spans="1:69" ht="17.25" customHeight="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="78">
+        <v>4.2</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66">
+        <v>44167</v>
+      </c>
+      <c r="F31" s="66">
+        <v>44177</v>
+      </c>
+      <c r="G31" s="67">
+        <v>11</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0</v>
+      </c>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="71"/>
+      <c r="AY31" s="71"/>
+      <c r="AZ31" s="71"/>
+      <c r="BA31" s="71"/>
+      <c r="BB31" s="71"/>
+      <c r="BC31" s="71"/>
+      <c r="BD31" s="71"/>
+      <c r="BE31" s="71"/>
+      <c r="BF31" s="71"/>
+      <c r="BG31" s="76"/>
+      <c r="BH31" s="76"/>
+      <c r="BI31" s="76"/>
+      <c r="BJ31" s="76"/>
+      <c r="BK31" s="76"/>
+      <c r="BL31" s="71"/>
+      <c r="BM31" s="71"/>
+      <c r="BN31" s="71"/>
+      <c r="BO31" s="71"/>
+      <c r="BP31" s="77"/>
+      <c r="BQ31" s="63"/>
     </row>
     <row r="32" spans="1:69" ht="17.25" customHeight="1">
       <c r="A32" s="48"/>
-      <c r="B32" s="49">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51">
-        <f>E30+G30</f>
-        <v>44155</v>
-      </c>
-      <c r="F32" s="51">
-        <f>E32+G32-1</f>
-        <v>44172</v>
+      <c r="B32" s="78">
+        <v>4.3</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66">
+        <v>44176</v>
+      </c>
+      <c r="F32" s="66">
+        <v>44179</v>
       </c>
       <c r="G32" s="67">
-        <v>18</v>
-      </c>
-      <c r="H32" s="53">
+        <v>4</v>
+      </c>
+      <c r="H32" s="68">
         <v>0</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="60"/>
-      <c r="AS32" s="60"/>
-      <c r="AT32" s="60"/>
-      <c r="AU32" s="60"/>
-      <c r="AV32" s="60"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="61"/>
-      <c r="BH32" s="61"/>
-      <c r="BI32" s="61"/>
-      <c r="BJ32" s="61"/>
-      <c r="BK32" s="61"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
-      <c r="BP32" s="62"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="75"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="71"/>
+      <c r="BA32" s="71"/>
+      <c r="BB32" s="71"/>
+      <c r="BC32" s="71"/>
+      <c r="BD32" s="71"/>
+      <c r="BE32" s="71"/>
+      <c r="BF32" s="71"/>
+      <c r="BG32" s="76"/>
+      <c r="BH32" s="76"/>
+      <c r="BI32" s="76"/>
+      <c r="BJ32" s="76"/>
+      <c r="BK32" s="76"/>
+      <c r="BL32" s="71"/>
+      <c r="BM32" s="71"/>
+      <c r="BN32" s="71"/>
+      <c r="BO32" s="71"/>
+      <c r="BP32" s="77"/>
       <c r="BQ32" s="63"/>
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="78">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="115" t="s">
-        <v>66</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="66">
-        <v>44167</v>
+        <v>44180</v>
       </c>
       <c r="F33" s="66">
-        <f>E33+G33-1</f>
-        <v>44177</v>
+        <v>44181</v>
       </c>
       <c r="G33" s="67">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H33" s="68">
         <v>0</v>
@@ -5256,21 +5212,21 @@
       <c r="AI33" s="71"/>
       <c r="AJ33" s="71"/>
       <c r="AK33" s="71"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="75"/>
+      <c r="AT33" s="75"/>
+      <c r="AU33" s="75"/>
+      <c r="AV33" s="75"/>
       <c r="AW33" s="71"/>
       <c r="AX33" s="71"/>
-      <c r="AY33" s="71"/>
-      <c r="AZ33" s="71"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
       <c r="BA33" s="71"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
@@ -5289,194 +5245,179 @@
       <c r="BP33" s="77"/>
       <c r="BQ33" s="63"/>
     </row>
-    <row r="34" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="78">
-        <v>4.3</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66">
-        <v>44176</v>
-      </c>
-      <c r="F34" s="66">
-        <f>E34+G34-1</f>
-        <v>44179</v>
-      </c>
-      <c r="G34" s="67">
-        <v>4</v>
-      </c>
-      <c r="H34" s="68">
-        <v>0</v>
-      </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="75"/>
-      <c r="AS34" s="75"/>
-      <c r="AT34" s="75"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="71"/>
-      <c r="BE34" s="71"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="76"/>
-      <c r="BH34" s="76"/>
-      <c r="BI34" s="76"/>
-      <c r="BJ34" s="76"/>
-      <c r="BK34" s="76"/>
-      <c r="BL34" s="71"/>
-      <c r="BM34" s="71"/>
-      <c r="BN34" s="71"/>
-      <c r="BO34" s="71"/>
-      <c r="BP34" s="77"/>
-      <c r="BQ34" s="63"/>
+    <row r="34" spans="1:69" ht="21" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="79">
+        <v>5</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="82"/>
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="82"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="82"/>
+      <c r="AS34" s="82"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="82"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="82"/>
+      <c r="BA34" s="82"/>
+      <c r="BB34" s="82"/>
+      <c r="BC34" s="82"/>
+      <c r="BD34" s="82"/>
+      <c r="BE34" s="82"/>
+      <c r="BF34" s="82"/>
+      <c r="BG34" s="82"/>
+      <c r="BH34" s="82"/>
+      <c r="BI34" s="82"/>
+      <c r="BJ34" s="82"/>
+      <c r="BK34" s="82"/>
+      <c r="BL34" s="82"/>
+      <c r="BM34" s="82"/>
+      <c r="BN34" s="82"/>
+      <c r="BO34" s="82"/>
+      <c r="BP34" s="82"/>
+      <c r="BQ34" s="32"/>
     </row>
     <row r="35" spans="1:69" ht="17.25" customHeight="1">
       <c r="A35" s="48"/>
-      <c r="B35" s="78">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66">
-        <f>E34+G34</f>
-        <v>44180</v>
-      </c>
-      <c r="F35" s="66">
-        <f>E35+G35-1</f>
+      <c r="B35" s="49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51">
         <v>44181</v>
       </c>
+      <c r="F35" s="51">
+        <v>44186</v>
+      </c>
       <c r="G35" s="67">
-        <v>2</v>
-      </c>
-      <c r="H35" s="68">
+        <v>6</v>
+      </c>
+      <c r="H35" s="53">
         <v>0</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="71"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="71"/>
-      <c r="AN35" s="71"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="71"/>
-      <c r="AQ35" s="71"/>
-      <c r="AR35" s="75"/>
-      <c r="AS35" s="75"/>
-      <c r="AT35" s="75"/>
-      <c r="AU35" s="75"/>
-      <c r="AV35" s="75"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="71"/>
-      <c r="AY35" s="73"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
       <c r="AZ35" s="73"/>
-      <c r="BA35" s="71"/>
-      <c r="BB35" s="71"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="71"/>
-      <c r="BE35" s="71"/>
-      <c r="BF35" s="71"/>
-      <c r="BG35" s="76"/>
-      <c r="BH35" s="76"/>
-      <c r="BI35" s="76"/>
-      <c r="BJ35" s="76"/>
-      <c r="BK35" s="76"/>
-      <c r="BL35" s="71"/>
-      <c r="BM35" s="71"/>
-      <c r="BN35" s="71"/>
-      <c r="BO35" s="71"/>
-      <c r="BP35" s="77"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BG35" s="61"/>
+      <c r="BH35" s="61"/>
+      <c r="BI35" s="61"/>
+      <c r="BJ35" s="61"/>
+      <c r="BK35" s="61"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
+      <c r="BP35" s="62"/>
       <c r="BQ35" s="63"/>
     </row>
     <row r="36" spans="1:69" ht="17.25" customHeight="1">
       <c r="A36" s="48"/>
       <c r="B36" s="78">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="66">
-        <f>F35</f>
-        <v>44181</v>
+        <v>44187</v>
       </c>
       <c r="F36" s="66">
-        <f>E36+G36-1</f>
-        <v>44181</v>
+        <v>44191</v>
       </c>
       <c r="G36" s="67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H36" s="68">
         <v>0</v>
@@ -5523,17 +5464,18 @@
       <c r="AV36" s="75"/>
       <c r="AW36" s="71"/>
       <c r="AX36" s="71"/>
-      <c r="AZ36" s="73"/>
+      <c r="AY36" s="71"/>
+      <c r="AZ36" s="71"/>
       <c r="BA36" s="71"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="71"/>
       <c r="BE36" s="71"/>
-      <c r="BF36" s="71"/>
-      <c r="BG36" s="76"/>
-      <c r="BH36" s="76"/>
-      <c r="BI36" s="76"/>
-      <c r="BJ36" s="76"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
       <c r="BK36" s="76"/>
       <c r="BL36" s="71"/>
       <c r="BM36" s="71"/>
@@ -5545,10 +5487,10 @@
     <row r="37" spans="1:69" ht="21" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
@@ -5620,22 +5562,20 @@
     <row r="38" spans="1:69" ht="17.25" customHeight="1">
       <c r="A38" s="48"/>
       <c r="B38" s="49">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="51">
-        <f>F36</f>
-        <v>44181</v>
+        <v>44186</v>
       </c>
       <c r="F38" s="51">
-        <f>E38+G38-1</f>
-        <v>44186</v>
+        <v>44194</v>
       </c>
       <c r="G38" s="67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H38" s="53">
         <v>0</v>
@@ -5676,25 +5616,27 @@
       <c r="AP38" s="56"/>
       <c r="AQ38" s="56"/>
       <c r="AR38" s="60"/>
-      <c r="AS38" s="60"/>
-      <c r="AT38" s="60"/>
-      <c r="AU38" s="60"/>
-      <c r="AV38" s="60"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="56"/>
-      <c r="AZ38" s="73"/>
-      <c r="BA38" s="73"/>
-      <c r="BB38" s="73"/>
-      <c r="BC38" s="73"/>
-      <c r="BD38" s="73"/>
+      <c r="AS38" s="75"/>
+      <c r="AT38" s="75"/>
+      <c r="AU38" s="75"/>
+      <c r="AV38" s="75"/>
+      <c r="AW38" s="71"/>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="71"/>
+      <c r="AZ38" s="71"/>
+      <c r="BA38" s="71"/>
+      <c r="BB38" s="71"/>
+      <c r="BC38" s="56"/>
+      <c r="BD38" s="56"/>
       <c r="BE38" s="73"/>
-      <c r="BG38" s="61"/>
-      <c r="BH38" s="61"/>
-      <c r="BI38" s="61"/>
-      <c r="BJ38" s="61"/>
-      <c r="BK38" s="61"/>
-      <c r="BL38" s="56"/>
-      <c r="BM38" s="56"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
       <c r="BN38" s="56"/>
       <c r="BO38" s="56"/>
       <c r="BP38" s="62"/>
@@ -5703,19 +5645,17 @@
     <row r="39" spans="1:69" ht="17.25" customHeight="1">
       <c r="A39" s="48"/>
       <c r="B39" s="78">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="66">
-        <f>F38</f>
-        <v>44186</v>
+        <v>44195</v>
       </c>
       <c r="F39" s="66">
-        <f>E39+G39-1</f>
-        <v>44187</v>
+        <v>44196</v>
       </c>
       <c r="G39" s="67">
         <v>2</v>
@@ -5771,8 +5711,8 @@
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="71"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
+      <c r="BE39" s="71"/>
+      <c r="BF39" s="71"/>
       <c r="BG39" s="76"/>
       <c r="BH39" s="76"/>
       <c r="BI39" s="76"/>
@@ -5780,30 +5720,28 @@
       <c r="BK39" s="76"/>
       <c r="BL39" s="71"/>
       <c r="BM39" s="71"/>
-      <c r="BN39" s="71"/>
-      <c r="BO39" s="71"/>
+      <c r="BN39" s="73"/>
+      <c r="BO39" s="73"/>
       <c r="BP39" s="77"/>
       <c r="BQ39" s="63"/>
     </row>
     <row r="40" spans="1:69" ht="17.25" customHeight="1">
       <c r="A40" s="48"/>
       <c r="B40" s="78">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="66">
-        <f>F39</f>
-        <v>44187</v>
+        <v>44196</v>
       </c>
       <c r="F40" s="66">
-        <f>E40+G40-1</f>
-        <v>44191</v>
+        <v>44197</v>
       </c>
       <c r="G40" s="67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="68">
         <v>0</v>
@@ -5817,14 +5755,14 @@
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="73"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="71"/>
       <c r="V40" s="71"/>
       <c r="W40" s="71"/>
       <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
+      <c r="Y40" s="73"/>
       <c r="Z40" s="71"/>
       <c r="AA40" s="71"/>
       <c r="AB40" s="71"/>
@@ -5837,7 +5775,7 @@
       <c r="AI40" s="71"/>
       <c r="AJ40" s="71"/>
       <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
+      <c r="AL40" s="73"/>
       <c r="AM40" s="71"/>
       <c r="AN40" s="71"/>
       <c r="AO40" s="71"/>
@@ -5851,442 +5789,52 @@
       <c r="AW40" s="71"/>
       <c r="AX40" s="71"/>
       <c r="AY40" s="71"/>
-      <c r="AZ40" s="71"/>
+      <c r="AZ40" s="73"/>
       <c r="BA40" s="71"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="71"/>
-      <c r="BE40" s="71"/>
+      <c r="BE40" s="73"/>
       <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="76"/>
+      <c r="BG40" s="76"/>
+      <c r="BH40" s="76"/>
+      <c r="BI40" s="76"/>
+      <c r="BJ40" s="76"/>
+      <c r="BK40" s="73"/>
       <c r="BL40" s="71"/>
       <c r="BM40" s="71"/>
       <c r="BN40" s="71"/>
-      <c r="BO40" s="71"/>
-      <c r="BP40" s="77"/>
+      <c r="BO40" s="73"/>
+      <c r="BP40" s="73"/>
       <c r="BQ40" s="63"/>
-    </row>
-    <row r="41" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="78">
-        <v>5.4</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66">
-        <f>F40+1</f>
-        <v>44192</v>
-      </c>
-      <c r="F41" s="66">
-        <f>E41</f>
-        <v>44192</v>
-      </c>
-      <c r="G41" s="67">
-        <v>1</v>
-      </c>
-      <c r="H41" s="68">
-        <v>0</v>
-      </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="74"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="74"/>
-      <c r="AG41" s="74"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="71"/>
-      <c r="AR41" s="75"/>
-      <c r="AS41" s="75"/>
-      <c r="AT41" s="75"/>
-      <c r="AU41" s="75"/>
-      <c r="AV41" s="75"/>
-      <c r="AW41" s="71"/>
-      <c r="AX41" s="71"/>
-      <c r="AY41" s="71"/>
-      <c r="AZ41" s="71"/>
-      <c r="BA41" s="71"/>
-      <c r="BB41" s="71"/>
-      <c r="BC41" s="71"/>
-      <c r="BD41" s="71"/>
-      <c r="BE41" s="71"/>
-      <c r="BF41" s="71"/>
-      <c r="BG41" s="76"/>
-      <c r="BH41" s="76"/>
-      <c r="BI41" s="76"/>
-      <c r="BJ41" s="76"/>
-      <c r="BK41" s="73"/>
-      <c r="BL41" s="71"/>
-      <c r="BM41" s="71"/>
-      <c r="BN41" s="77"/>
-      <c r="BO41" s="77"/>
-      <c r="BP41" s="77"/>
-      <c r="BQ41" s="63"/>
-    </row>
-    <row r="42" spans="1:69" ht="21" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="79">
-        <v>6</v>
-      </c>
-      <c r="C42" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
-      <c r="AC42" s="82"/>
-      <c r="AD42" s="82"/>
-      <c r="AE42" s="82"/>
-      <c r="AF42" s="82"/>
-      <c r="AG42" s="82"/>
-      <c r="AH42" s="82"/>
-      <c r="AI42" s="82"/>
-      <c r="AJ42" s="82"/>
-      <c r="AK42" s="82"/>
-      <c r="AL42" s="82"/>
-      <c r="AM42" s="82"/>
-      <c r="AN42" s="82"/>
-      <c r="AO42" s="82"/>
-      <c r="AP42" s="82"/>
-      <c r="AQ42" s="82"/>
-      <c r="AR42" s="82"/>
-      <c r="AS42" s="82"/>
-      <c r="AT42" s="82"/>
-      <c r="AU42" s="82"/>
-      <c r="AV42" s="82"/>
-      <c r="AW42" s="82"/>
-      <c r="AX42" s="82"/>
-      <c r="AY42" s="82"/>
-      <c r="AZ42" s="82"/>
-      <c r="BA42" s="82"/>
-      <c r="BB42" s="82"/>
-      <c r="BC42" s="82"/>
-      <c r="BD42" s="82"/>
-      <c r="BE42" s="82"/>
-      <c r="BF42" s="82"/>
-      <c r="BG42" s="82"/>
-      <c r="BH42" s="82"/>
-      <c r="BI42" s="82"/>
-      <c r="BJ42" s="82"/>
-      <c r="BK42" s="82"/>
-      <c r="BL42" s="82"/>
-      <c r="BM42" s="82"/>
-      <c r="BN42" s="82"/>
-      <c r="BO42" s="82"/>
-      <c r="BP42" s="82"/>
-      <c r="BQ42" s="32"/>
-    </row>
-    <row r="43" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49">
-        <v>6.1</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="51">
-        <f>E39</f>
-        <v>44186</v>
-      </c>
-      <c r="F43" s="51">
-        <f>E43+G43-1</f>
-        <v>44194</v>
-      </c>
-      <c r="G43" s="67">
-        <v>9</v>
-      </c>
-      <c r="H43" s="53">
-        <v>0</v>
-      </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="56"/>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
-      <c r="AR43" s="60"/>
-      <c r="AS43" s="75"/>
-      <c r="AT43" s="75"/>
-      <c r="AU43" s="75"/>
-      <c r="AV43" s="75"/>
-      <c r="AW43" s="71"/>
-      <c r="AX43" s="71"/>
-      <c r="AY43" s="71"/>
-      <c r="AZ43" s="71"/>
-      <c r="BA43" s="71"/>
-      <c r="BB43" s="71"/>
-      <c r="BC43" s="56"/>
-      <c r="BD43" s="56"/>
-      <c r="BE43" s="73"/>
-      <c r="BF43" s="73"/>
-      <c r="BG43" s="73"/>
-      <c r="BH43" s="73"/>
-      <c r="BI43" s="73"/>
-      <c r="BJ43" s="73"/>
-      <c r="BK43" s="73"/>
-      <c r="BL43" s="73"/>
-      <c r="BM43" s="73"/>
-      <c r="BN43" s="56"/>
-      <c r="BO43" s="56"/>
-      <c r="BP43" s="62"/>
-      <c r="BQ43" s="63"/>
-    </row>
-    <row r="44" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="78">
-        <v>6.2</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66">
-        <f>F43+1</f>
-        <v>44195</v>
-      </c>
-      <c r="F44" s="66">
-        <f>E44+G44-1</f>
-        <v>44196</v>
-      </c>
-      <c r="G44" s="67">
-        <v>2</v>
-      </c>
-      <c r="H44" s="68">
-        <v>0</v>
-      </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="74"/>
-      <c r="AF44" s="74"/>
-      <c r="AG44" s="74"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
-      <c r="AM44" s="71"/>
-      <c r="AN44" s="71"/>
-      <c r="AO44" s="71"/>
-      <c r="AP44" s="71"/>
-      <c r="AQ44" s="71"/>
-      <c r="AR44" s="75"/>
-      <c r="AS44" s="75"/>
-      <c r="AT44" s="75"/>
-      <c r="AU44" s="75"/>
-      <c r="AV44" s="75"/>
-      <c r="AW44" s="71"/>
-      <c r="AX44" s="71"/>
-      <c r="AY44" s="71"/>
-      <c r="AZ44" s="71"/>
-      <c r="BA44" s="71"/>
-      <c r="BB44" s="71"/>
-      <c r="BC44" s="71"/>
-      <c r="BD44" s="71"/>
-      <c r="BE44" s="71"/>
-      <c r="BF44" s="71"/>
-      <c r="BG44" s="76"/>
-      <c r="BH44" s="76"/>
-      <c r="BI44" s="76"/>
-      <c r="BJ44" s="76"/>
-      <c r="BK44" s="76"/>
-      <c r="BL44" s="71"/>
-      <c r="BM44" s="71"/>
-      <c r="BN44" s="73"/>
-      <c r="BO44" s="73"/>
-      <c r="BP44" s="77"/>
-      <c r="BQ44" s="63"/>
-    </row>
-    <row r="45" spans="1:69" ht="17.25" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="78">
-        <v>6.3</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66">
-        <f>F44</f>
-        <v>44196</v>
-      </c>
-      <c r="F45" s="66">
-        <f>F44+G45-1</f>
-        <v>44197</v>
-      </c>
-      <c r="G45" s="67">
-        <v>2</v>
-      </c>
-      <c r="H45" s="68">
-        <v>0</v>
-      </c>
-      <c r="I45" s="69"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="74"/>
-      <c r="AG45" s="74"/>
-      <c r="AH45" s="71"/>
-      <c r="AI45" s="71"/>
-      <c r="AJ45" s="71"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="71"/>
-      <c r="AM45" s="71"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="71"/>
-      <c r="AP45" s="71"/>
-      <c r="AQ45" s="71"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="75"/>
-      <c r="AT45" s="75"/>
-      <c r="AU45" s="75"/>
-      <c r="AV45" s="75"/>
-      <c r="AW45" s="71"/>
-      <c r="AX45" s="71"/>
-      <c r="AY45" s="71"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="71"/>
-      <c r="BB45" s="71"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="71"/>
-      <c r="BE45" s="71"/>
-      <c r="BF45" s="71"/>
-      <c r="BG45" s="76"/>
-      <c r="BH45" s="76"/>
-      <c r="BI45" s="76"/>
-      <c r="BJ45" s="76"/>
-      <c r="BK45" s="76"/>
-      <c r="BL45" s="71"/>
-      <c r="BM45" s="71"/>
-      <c r="BN45" s="71"/>
-      <c r="BO45" s="73"/>
-      <c r="BP45" s="73"/>
-      <c r="BQ45" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I5:O5"/>
@@ -6296,31 +5844,6 @@
     <mergeCell ref="P4:AB4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
